--- a/cas_swissre_data.xlsx
+++ b/cas_swissre_data.xlsx
@@ -986,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:V2561"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1569" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1581" activeCellId="0" sqref="L1581"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
